--- a/data/evaluation/evaluation_South_Summer_Onions.xlsx
+++ b/data/evaluation/evaluation_South_Summer_Onions.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3644.877192982457</v>
+        <v>3651.01754385965</v>
       </c>
       <c r="C3" t="n">
-        <v>31361949.93006622</v>
+        <v>31366023.02948142</v>
       </c>
       <c r="D3" t="n">
-        <v>5600.174098192503</v>
+        <v>5600.537744670723</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.659124901662044</v>
+        <v>-0.6593403787188525</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3700.168677139553</v>
+        <v>3530.373003926319</v>
       </c>
       <c r="C4" t="n">
-        <v>31137071.63498436</v>
+        <v>26958807.08932699</v>
       </c>
       <c r="D4" t="n">
-        <v>5580.060182021728</v>
+        <v>5192.187120022446</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.6472282823496098</v>
+        <v>-0.4261877294219381</v>
       </c>
     </row>
     <row r="5">
